--- a/PSPSProject/testData/em_Valid_Invalid_Circuits.xlsx
+++ b/PSPSProject/testData/em_Valid_Invalid_Circuits.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k8my\Documents\GitHub\gis-geomartcloud-pspsv4-automation-python\PSPSProject\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F13A3A-D95D-4DF2-94F7-951A9DABBE53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A627A89-BB2E-4C63-B83D-97933AD1EFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="20490" windowHeight="8985" tabRatio="765" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="765" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fail1_open" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Fail4_open" sheetId="35" r:id="rId4"/>
     <sheet name="Fail5_source_isolation" sheetId="36" r:id="rId5"/>
     <sheet name="Fail6_startOpNumber" sheetId="37" r:id="rId6"/>
-    <sheet name="Fail7_same" sheetId="38" r:id="rId7"/>
-    <sheet name="Fail8_same" sheetId="40" r:id="rId8"/>
-    <sheet name="Fail9_same" sheetId="41" r:id="rId9"/>
+    <sheet name="Fail8_same" sheetId="40" r:id="rId7"/>
+    <sheet name="Fail9_same" sheetId="41" r:id="rId8"/>
+    <sheet name="Fail7_same" sheetId="38" r:id="rId9"/>
     <sheet name="Error_Message" sheetId="29" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="72">
   <si>
     <t>DPD</t>
   </si>
@@ -124,9 +124,6 @@
     <t>MONTAGUE</t>
   </si>
   <si>
-    <t xml:space="preserve"> source_isolation_device is open</t>
-  </si>
-  <si>
     <t>CAPAY 1102</t>
   </si>
   <si>
@@ -245,6 +242,9 @@
   </si>
   <si>
     <t>Same circuit id and source_isolation_device combination has different temp gen name;</t>
+  </si>
+  <si>
+    <t>inc</t>
   </si>
 </sst>
 </file>
@@ -728,9 +728,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1090,12 +1091,13 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1131,9 +1133,12 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1159,9 +1164,6 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1171,10 +1173,10 @@
         <v>102111102</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1184,9 +1186,6 @@
       </c>
       <c r="G3" t="s">
         <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1196,10 +1195,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387A1579-6014-45CA-A0C1-A9D63B523CC1}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,7 +1213,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -1229,32 +1228,32 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1268,10 +1267,13 @@
   <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1305,9 +1307,12 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1333,9 +1338,6 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -1359,9 +1361,6 @@
       <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="M3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1385,9 +1384,6 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1410,9 +1406,6 @@
       </c>
       <c r="G5" t="s">
         <v>2</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
@@ -1428,7 +1421,7 @@
   <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1467,10 +1460,13 @@
       <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1482,10 +1478,10 @@
         <v>102041104</v>
       </c>
       <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1495,9 +1491,6 @@
       </c>
       <c r="G2" t="s">
         <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1508,10 +1501,10 @@
         <v>102541102</v>
       </c>
       <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1521,9 +1514,6 @@
       </c>
       <c r="G3" t="s">
         <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1534,10 +1524,10 @@
         <v>103081105</v>
       </c>
       <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -1547,9 +1537,6 @@
       </c>
       <c r="G4" t="s">
         <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1560,19 +1547,16 @@
         <v>152921101</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1583,10 +1567,10 @@
         <v>22331100</v>
       </c>
       <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>43</v>
       </c>
       <c r="E6" t="s">
         <v>20</v>
@@ -1594,12 +1578,10 @@
       <c r="G6" t="s">
         <v>4</v>
       </c>
-      <c r="M6" t="s">
-        <v>21</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1608,7 +1590,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,9 +1627,12 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1659,19 +1644,16 @@
         <v>12110403</v>
       </c>
       <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1682,19 +1664,16 @@
         <v>252761119</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1705,7 +1684,7 @@
         <v>83432105</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -1714,13 +1693,10 @@
         <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
-      </c>
-      <c r="M4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1731,10 +1707,10 @@
         <v>102812101</v>
       </c>
       <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
       </c>
       <c r="E5" t="s">
         <v>20</v>
@@ -1744,9 +1720,6 @@
       </c>
       <c r="G5" t="s">
         <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1771,9 +1744,6 @@
       <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1783,10 +1753,10 @@
         <v>103441102</v>
       </c>
       <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
         <v>52</v>
-      </c>
-      <c r="D7" t="s">
-        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1796,9 +1766,6 @@
       </c>
       <c r="G7" t="s">
         <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1808,15 +1775,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DADE30B-D463-4951-9D6F-5273055E846C}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1848,13 +1815,16 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1862,10 +1832,10 @@
         <v>123456789</v>
       </c>
       <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
         <v>52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
@@ -1884,15 +1854,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{507642A2-B9C5-479C-9DEA-2B14B8BC24BB}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -1924,13 +1894,16 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -1938,13 +1911,13 @@
         <v>192021121</v>
       </c>
       <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>56</v>
-      </c>
-      <c r="E2" t="s">
-        <v>57</v>
       </c>
       <c r="F2">
         <v>5789</v>
@@ -1959,16 +1932,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D978A0E-FF67-48D7-8B43-868E853308AD}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5A013C-952E-4E3E-8ABD-20423E91C1F1}">
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2000,56 +1973,50 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="B2">
-        <v>42271105</v>
+        <v>102541102</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="1">
-        <v>123000000000000</v>
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>423</v>
+        <v>10439</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>3287</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
       <c r="J2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="B3">
-        <v>42271105</v>
+        <v>102541102</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>63</v>
@@ -2058,19 +2025,51 @@
         <v>20</v>
       </c>
       <c r="F3">
-        <v>423</v>
+        <v>10439</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
       <c r="H3">
-        <v>3287</v>
+        <v>10423</v>
       </c>
       <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>244</v>
+      </c>
+      <c r="B4">
+        <v>102541102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>10439</v>
+      </c>
+      <c r="G4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>10437</v>
+      </c>
+      <c r="I4" t="s">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
-        <v>60</v>
+      <c r="J4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2079,16 +2078,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5A013C-952E-4E3E-8ABD-20423E91C1F1}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E9DD44-D28D-409A-B827-4CD603626598}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2120,13 +2124,16 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>244</v>
       </c>
@@ -2134,25 +2141,28 @@
         <v>102541102</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>10439</v>
+        <v>10437</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>244</v>
       </c>
@@ -2160,60 +2170,25 @@
         <v>102541102</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3">
-        <v>10439</v>
+        <v>10437</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>10423</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
       <c r="J3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>244</v>
-      </c>
-      <c r="B4">
-        <v>102541102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>10439</v>
-      </c>
-      <c r="G4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4">
-        <v>10437</v>
-      </c>
-      <c r="I4" t="s">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2222,21 +2197,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E9DD44-D28D-409A-B827-4CD603626598}">
-  <dimension ref="A1:L3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D978A0E-FF67-48D7-8B43-868E853308AD}">
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -2268,68 +2238,80 @@
         <v>12</v>
       </c>
       <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B2">
-        <v>102541102</v>
+        <v>42271105</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
-        <v>64</v>
+        <v>58</v>
+      </c>
+      <c r="D2" s="1">
+        <v>123000000000000</v>
       </c>
       <c r="E2" t="s">
         <v>20</v>
       </c>
       <c r="F2">
-        <v>10437</v>
+        <v>423</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
+      <c r="H2">
+        <v>3287</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
         <v>60</v>
       </c>
-      <c r="K2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="B3">
-        <v>102541102</v>
+        <v>42271105</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3">
-        <v>10437</v>
+        <v>423</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
+      <c r="H3">
+        <v>3287</v>
+      </c>
+      <c r="I3" t="s">
+        <v>1</v>
+      </c>
       <c r="J3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
